--- a/biology/Botanique/Ternstroemia_punctata/Ternstroemia_punctata.xlsx
+++ b/biology/Botanique/Ternstroemia_punctata/Ternstroemia_punctata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ternstroemia punctata est une espèce de plantes à fleurs appartenant à la famille des Pentaphylacaceae (anciennement des Ternstroemiaceae ou des Theaceae).
 C'est un arbre néotropical.
-En Guyane, Ternstroemia punctata est une des espèces connues sous le nom de Palétuvier montagne[3] (nom partagé notamment avec Ternstroemia dentata et Tovomita guianensis).
-Au Suriname, on l'appelle Savannebeierenblad, Savanne-mangro (Sranan tongo), Kaiakaiadan, Akayuran (Arawak), Poliperi (Karib)[4].
+En Guyane, Ternstroemia punctata est une des espèces connues sous le nom de Palétuvier montagne (nom partagé notamment avec Ternstroemia dentata et Tovomita guianensis).
+Au Suriname, on l'appelle Savannebeierenblad, Savanne-mangro (Sranan tongo), Kaiakaiadan, Akayuran (Arawak), Poliperi (Karib).
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ternstroemia punctata est un petit arbre ou un arbuste haut de 3–8 m, à rameaux robustes, cassants, gris, non verticillés, subtortueux.
 Les feuilles sont larges, fortement coriaces, abondamment ponctuée de noir en-dessous, entières, de forme obovale, oblongue ou ovale-oblongue, longues de (1-)3-7(-8) cm pour 2-3(-4) cm de large, à apex obtus ou arrondi, sub-émarginée, à base cunéiforme.
@@ -528,8 +542,8 @@
 Les 5 pétales sont de couleur crème, caducs, de forme ovale, longs d'environ 6-8 mm pour 3 mm de large, membraneux, longuement acuminés, simulant la forme du calice.
 On compte environ 50 étamines, bisériées, avec des filets filiformes, inégaux, de tailles inégales, longs de 0,5 à 2,5 mm, rejoint à leur base, avec des connectifs avec un appendice longs de 0,5 mm, et avec des anthères inégales, jointes, longues de 1-2 mm.
 L'ovaire est globuleux à conique, haut de 2 mm, à 3 loges (rarement 4-5 en raison de fausses séparations), contenant chacune 3-4 ovules, se rétrécissant à l'apex dans le style long de 4-5 mm, libre sur 2 mm puis trifide au sommet avec 3 stigmates punctiformes.
-Le fruit est une capsule indéhiscente, globuleuse, en forme d'oignon, rugueuse au séchage, d'environ 1 cm de diamètre, contenant 3 loges et 3-12 graines comprimées latéralement à base tronquée[4],[5],[6],[7].
-Les caractères remarquables de cette espèce sont ses feuilles entières ponctuées avec des nervures nettement visibles sur la surface supérieure, les pétales longs et acuminés, les lobes du calice exceptionnellement épais et en forme d'étoile lorsqu'ils ont élargi, les bractéoles caduques, laissant des cicatrices triangulaires, les trois styles séparé, et l'ovaire et le fruit à 3 cellules[8].
+Le fruit est une capsule indéhiscente, globuleuse, en forme d'oignon, rugueuse au séchage, d'environ 1 cm de diamètre, contenant 3 loges et 3-12 graines comprimées latéralement à base tronquée.
+Les caractères remarquables de cette espèce sont ses feuilles entières ponctuées avec des nervures nettement visibles sur la surface supérieure, les pétales longs et acuminés, les lobes du calice exceptionnellement épais et en forme d'étoile lorsqu'ils ont élargi, les bractéoles caduques, laissant des cicatrices triangulaires, les trois styles séparé, et l'ovaire et le fruit à 3 cellules.
 </t>
         </is>
       </c>
@@ -558,9 +572,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ternstroemia punctata est présent au Venezuela (Auyan Tepuy, tepuy du Roraima, Bolívar), au Guyana, au Suriname, en Guyane, au Brésil (Amazonas)[4],[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ternstroemia punctata est présent au Venezuela (Auyan Tepuy, tepuy du Roraima, Bolívar), au Guyana, au Suriname, en Guyane, au Brésil (Amazonas),.
 </t>
         </is>
       </c>
@@ -589,10 +605,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ternstroemia punctata est un commun dans les savanes sablonneuses sèches du Suriname[4],[9], et sur les pentes broussailleuses des Tepuys, autour de 1 000–1 400 m d'altitude au Venezuela[6].
-Ternstroemia punctata est un arbre zoochore[10], qui fleurit et fructifie presque toute l'année (mais on observe rarement les fleurs, ouvertes seulement le matin par beau temps)[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ternstroemia punctata est un commun dans les savanes sablonneuses sèches du Suriname et sur les pentes broussailleuses des Tepuys, autour de 1 000–1 400 m d'altitude au Venezuela.
+Ternstroemia punctata est un arbre zoochore, qui fleurit et fructifie presque toute l'année (mais on observe rarement les fleurs, ouvertes seulement le matin par beau temps).
 </t>
         </is>
       </c>
@@ -621,9 +639,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme pour Ternstroemia dentata, l'écorce de Ternstroemia punctata est employée pour le tannage du cuir. Le bois natruellement durable sert pour la fabrication de bardeaux, et de bois de mines[3],[11].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme pour Ternstroemia dentata, l'écorce de Ternstroemia punctata est employée pour le tannage du cuir. Le bois natruellement durable sert pour la fabrication de bardeaux, et de bois de mines,.
 </t>
         </is>
       </c>
@@ -652,9 +672,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[12] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « TAONABO (punctata) foliis ovato-oblongis, emarginatis, fructu majore. (Tabula 228.)
 Arbor viginti quinque-pedali, in ſummitate ramoſo ; ramis hinc &amp; inde ſparſis. Folia alterna, obſcure virentia, ovata, emarginaca, ad margines punctis rigidis exaſperata, glabra, breviter petiolata. Flores ſolitarii, axillares, longo pedunculo ſuffulti. Calix, corolla, ut in precedenti ; ſed stamina numeroſiſſima, ſexaginta. Fructus duplo major.
 Florebat, fructumque ferebat Auguſto &amp; Septembri.
